--- a/03.test/01_成果物(20250926納品分)/F4007_他システム連動インターフェース一覧/F4007_DA_他システム連動ＩＦ一覧.xlsx
+++ b/03.test/01_成果物(20250926納品分)/F4007_他システム連動インターフェース一覧/F4007_DA_他システム連動ＩＦ一覧.xlsx
@@ -2,26 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
-  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="true"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hokuren\会計再構築\20_外部設計\01_成果物\F4007_他システム連動インターフェース一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC8123-FA70-46F7-B92D-764E3F93C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴 " sheetId="14" r:id="rId1"/>
     <sheet name="他システム連動ＩＦ一覧表" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">他システム連動ＩＦ一覧表!$A$6:$BJ$136</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">他システム連動ＩＦ一覧表!$A$1:$BJ$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'変更履歴 '!$A$1:$BJ$55</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">他システム連動ＩＦ一覧表!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'変更履歴 '!$1:$5</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">他システム連動ＩＦ一覧表!$A$6:$BJ$136</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">他システム連動ＩＦ一覧表!$A$1:$BJ$86</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'変更履歴 '!$A$1:$BJ$55</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">他システム連動ＩＦ一覧表!$1:$6</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'変更履歴 '!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1018,8 +1017,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1039,7 +1038,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -1080,6 +1079,13 @@
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF4180C4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1448,293 +1454,296 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{E187CD0B-29EA-4C85-8322-ED6049CBC8CF}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1747,120 +1756,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1916,8 +1925,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1939,8 +1948,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -1956,8 +1965,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1994,17 +2003,17 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3478,18 +3487,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76C1B45-891F-492C-8CFD-05477961E523}">
   <sheetPr codeName="Sheet2">
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:BJ183"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="true" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="6"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:62" s="2" customFormat="true" ht="18" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:62" s="4" customFormat="true" ht="18" customHeight="true">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -3569,7 +3578,7 @@
       <c r="BI2" s="24"/>
       <c r="BJ2" s="25"/>
     </row>
-    <row r="3" spans="1:62" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:62" s="2" customFormat="true" ht="18" customHeight="true">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
@@ -3641,7 +3650,7 @@
       <c r="BI3" s="24"/>
       <c r="BJ3" s="25"/>
     </row>
-    <row r="4" spans="1:62" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:62" s="2" customFormat="true" ht="18" customHeight="true">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -3707,8 +3716,8 @@
       <c r="BI4" s="24"/>
       <c r="BJ4" s="25"/>
     </row>
-    <row r="5" spans="1:62" ht="4.5" customHeight="1"/>
-    <row r="6" spans="1:62" s="18" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:62" ht="4.5" customHeight="true"/>
+    <row r="6" spans="1:62" s="18" customFormat="true" ht="30.75" customHeight="true">
       <c r="A6" s="85" t="s">
         <v>16</v>
       </c>
@@ -3786,7 +3795,7 @@
       </c>
       <c r="BJ6" s="72"/>
     </row>
-    <row r="7" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="7" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A7" s="73">
         <v>1</v>
       </c>
@@ -3862,7 +3871,7 @@
       </c>
       <c r="BJ7" s="78"/>
     </row>
-    <row r="8" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A8" s="41">
         <f>A7+1</f>
         <v>2</v>
@@ -3939,7 +3948,7 @@
       </c>
       <c r="BJ8" s="54"/>
     </row>
-    <row r="9" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="9" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A9" s="41">
         <f t="shared" ref="A9:A72" si="0">A8+1</f>
         <v>3</v>
@@ -4014,7 +4023,7 @@
       </c>
       <c r="BJ9" s="70"/>
     </row>
-    <row r="10" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="10" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A10" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4089,7 +4098,7 @@
       </c>
       <c r="BJ10" s="54"/>
     </row>
-    <row r="11" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="11" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A11" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4164,7 +4173,7 @@
       <c r="BI11" s="54"/>
       <c r="BJ11" s="54"/>
     </row>
-    <row r="12" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="12" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A12" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4239,7 +4248,7 @@
       <c r="BI12" s="54"/>
       <c r="BJ12" s="54"/>
     </row>
-    <row r="13" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="13" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A13" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4314,7 +4323,7 @@
       <c r="BI13" s="54"/>
       <c r="BJ13" s="54"/>
     </row>
-    <row r="14" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="14" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A14" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4389,7 +4398,7 @@
       <c r="BI14" s="54"/>
       <c r="BJ14" s="54"/>
     </row>
-    <row r="15" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="15" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A15" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4464,7 +4473,7 @@
       <c r="BI15" s="54"/>
       <c r="BJ15" s="54"/>
     </row>
-    <row r="16" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="16" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A16" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4539,7 +4548,7 @@
       <c r="BI16" s="54"/>
       <c r="BJ16" s="54"/>
     </row>
-    <row r="17" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="17" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4614,7 +4623,7 @@
       <c r="BI17" s="54"/>
       <c r="BJ17" s="54"/>
     </row>
-    <row r="18" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="18" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4689,7 +4698,7 @@
       <c r="BI18" s="54"/>
       <c r="BJ18" s="54"/>
     </row>
-    <row r="19" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="19" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4764,7 +4773,7 @@
       <c r="BI19" s="54"/>
       <c r="BJ19" s="54"/>
     </row>
-    <row r="20" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="20" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4781,7 +4790,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="101" t="s">
         <v>56</v>
       </c>
       <c r="M20" s="46"/>
@@ -4839,7 +4848,7 @@
       </c>
       <c r="BJ20" s="54"/>
     </row>
-    <row r="21" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="21" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4914,7 +4923,7 @@
       </c>
       <c r="BJ21" s="54"/>
     </row>
-    <row r="22" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="22" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4989,7 +4998,7 @@
       <c r="BI22" s="54"/>
       <c r="BJ22" s="54"/>
     </row>
-    <row r="23" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="23" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5064,7 +5073,7 @@
       <c r="BI23" s="54"/>
       <c r="BJ23" s="54"/>
     </row>
-    <row r="24" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="24" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5139,7 +5148,7 @@
       </c>
       <c r="BJ24" s="54"/>
     </row>
-    <row r="25" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="25" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A25" s="41">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5228,7 +5237,7 @@
       <c r="BI25" s="54"/>
       <c r="BJ25" s="54"/>
     </row>
-    <row r="26" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="26" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5361,7 +5370,7 @@
       <c r="BI26" s="54"/>
       <c r="BJ26" s="54"/>
     </row>
-    <row r="27" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="27" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5494,7 +5503,7 @@
       <c r="BI27" s="54"/>
       <c r="BJ27" s="54"/>
     </row>
-    <row r="28" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="28" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A28" s="41">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5627,7 +5636,7 @@
       <c r="BI28" s="54"/>
       <c r="BJ28" s="54"/>
     </row>
-    <row r="29" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="29" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A29" s="41">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5760,7 +5769,7 @@
       <c r="BI29" s="54"/>
       <c r="BJ29" s="54"/>
     </row>
-    <row r="30" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="30" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A30" s="41">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5893,7 +5902,7 @@
       <c r="BI30" s="54"/>
       <c r="BJ30" s="54"/>
     </row>
-    <row r="31" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="31" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A31" s="41">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6026,7 +6035,7 @@
       <c r="BI31" s="54"/>
       <c r="BJ31" s="54"/>
     </row>
-    <row r="32" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="32" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A32" s="41">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6159,7 +6168,7 @@
       <c r="BI32" s="54"/>
       <c r="BJ32" s="54"/>
     </row>
-    <row r="33" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="33" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A33" s="41">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6292,7 +6301,7 @@
       <c r="BI33" s="54"/>
       <c r="BJ33" s="54"/>
     </row>
-    <row r="34" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="34" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A34" s="41">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6425,7 +6434,7 @@
       <c r="BI34" s="54"/>
       <c r="BJ34" s="54"/>
     </row>
-    <row r="35" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="35" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A35" s="41">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6558,7 +6567,7 @@
       <c r="BI35" s="54"/>
       <c r="BJ35" s="54"/>
     </row>
-    <row r="36" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="36" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A36" s="41">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6633,7 +6642,7 @@
       </c>
       <c r="BJ36" s="54"/>
     </row>
-    <row r="37" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="37" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A37" s="41">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6708,7 +6717,7 @@
       </c>
       <c r="BJ37" s="54"/>
     </row>
-    <row r="38" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="38" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A38" s="41">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6783,7 +6792,7 @@
       </c>
       <c r="BJ38" s="54"/>
     </row>
-    <row r="39" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="39" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A39" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6858,7 +6867,7 @@
       <c r="BI39" s="54"/>
       <c r="BJ39" s="54"/>
     </row>
-    <row r="40" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="40" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A40" s="41">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6933,7 +6942,7 @@
       <c r="BI40" s="54"/>
       <c r="BJ40" s="54"/>
     </row>
-    <row r="41" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="41" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A41" s="41">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7008,7 +7017,7 @@
       <c r="BI41" s="54"/>
       <c r="BJ41" s="54"/>
     </row>
-    <row r="42" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="42" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A42" s="41">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7083,7 +7092,7 @@
       <c r="BI42" s="54"/>
       <c r="BJ42" s="54"/>
     </row>
-    <row r="43" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="43" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A43" s="41">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7158,7 +7167,7 @@
       </c>
       <c r="BJ43" s="54"/>
     </row>
-    <row r="44" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="44" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A44" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7233,7 +7242,7 @@
       <c r="BI44" s="54"/>
       <c r="BJ44" s="54"/>
     </row>
-    <row r="45" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="45" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A45" s="41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7308,7 +7317,7 @@
       </c>
       <c r="BJ45" s="54"/>
     </row>
-    <row r="46" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="46" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A46" s="41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7383,7 +7392,7 @@
       <c r="BI46" s="54"/>
       <c r="BJ46" s="54"/>
     </row>
-    <row r="47" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="47" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A47" s="41">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7458,7 +7467,7 @@
       </c>
       <c r="BJ47" s="54"/>
     </row>
-    <row r="48" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="48" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A48" s="41">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7533,7 +7542,7 @@
       </c>
       <c r="BJ48" s="54"/>
     </row>
-    <row r="49" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="49" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A49" s="41">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7608,7 +7617,7 @@
       </c>
       <c r="BJ49" s="54"/>
     </row>
-    <row r="50" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="50" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A50" s="41">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7683,7 +7692,7 @@
       </c>
       <c r="BJ50" s="54"/>
     </row>
-    <row r="51" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="51" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A51" s="41">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7758,7 +7767,7 @@
       </c>
       <c r="BJ51" s="54"/>
     </row>
-    <row r="52" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="52" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A52" s="41">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7833,7 +7842,7 @@
       </c>
       <c r="BJ52" s="54"/>
     </row>
-    <row r="53" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="53" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A53" s="41">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7908,7 +7917,7 @@
       </c>
       <c r="BJ53" s="54"/>
     </row>
-    <row r="54" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="54" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A54" s="41">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7983,7 +7992,7 @@
       <c r="BI54" s="54"/>
       <c r="BJ54" s="54"/>
     </row>
-    <row r="55" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="55" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A55" s="41">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8058,7 +8067,7 @@
       <c r="BI55" s="54"/>
       <c r="BJ55" s="54"/>
     </row>
-    <row r="56" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="56" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A56" s="41">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8133,7 +8142,7 @@
       <c r="BI56" s="54"/>
       <c r="BJ56" s="54"/>
     </row>
-    <row r="57" spans="1:62" s="19" customFormat="1" ht="31.35" customHeight="1">
+    <row r="57" spans="1:62" s="19" customFormat="true" ht="31.35" customHeight="true">
       <c r="A57" s="41">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8208,7 +8217,7 @@
       <c r="BI57" s="54"/>
       <c r="BJ57" s="54"/>
     </row>
-    <row r="58" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="58" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A58" s="41">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8283,7 +8292,7 @@
       </c>
       <c r="BJ58" s="54"/>
     </row>
-    <row r="59" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="59" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A59" s="41">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8358,7 +8367,7 @@
       </c>
       <c r="BJ59" s="100"/>
     </row>
-    <row r="60" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="60" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A60" s="41">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8433,7 +8442,7 @@
       </c>
       <c r="BJ60" s="54"/>
     </row>
-    <row r="61" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="61" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A61" s="41">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8508,7 +8517,7 @@
       <c r="BI61" s="54"/>
       <c r="BJ61" s="54"/>
     </row>
-    <row r="62" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="62" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A62" s="41">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8583,7 +8592,7 @@
       <c r="BI62" s="54"/>
       <c r="BJ62" s="54"/>
     </row>
-    <row r="63" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="63" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A63" s="41">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8658,7 +8667,7 @@
       <c r="BI63" s="54"/>
       <c r="BJ63" s="54"/>
     </row>
-    <row r="64" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="64" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A64" s="41">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8733,7 +8742,7 @@
       <c r="BI64" s="54"/>
       <c r="BJ64" s="54"/>
     </row>
-    <row r="65" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="65" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A65" s="41">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8808,7 +8817,7 @@
       <c r="BI65" s="54"/>
       <c r="BJ65" s="54"/>
     </row>
-    <row r="66" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="66" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A66" s="41">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8883,7 +8892,7 @@
       <c r="BI66" s="54"/>
       <c r="BJ66" s="54"/>
     </row>
-    <row r="67" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="67" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A67" s="41">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8958,7 +8967,7 @@
       <c r="BI67" s="54"/>
       <c r="BJ67" s="54"/>
     </row>
-    <row r="68" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="68" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A68" s="41">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -9033,7 +9042,7 @@
       </c>
       <c r="BJ68" s="54"/>
     </row>
-    <row r="69" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="69" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A69" s="41">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -9108,7 +9117,7 @@
       </c>
       <c r="BJ69" s="54"/>
     </row>
-    <row r="70" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="70" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A70" s="41">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -9183,7 +9192,7 @@
       <c r="BI70" s="54"/>
       <c r="BJ70" s="54"/>
     </row>
-    <row r="71" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="71" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A71" s="41">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -9258,7 +9267,7 @@
       <c r="BI71" s="54"/>
       <c r="BJ71" s="54"/>
     </row>
-    <row r="72" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="72" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A72" s="41">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -9333,7 +9342,7 @@
       <c r="BI72" s="54"/>
       <c r="BJ72" s="54"/>
     </row>
-    <row r="73" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="73" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A73" s="41">
         <f t="shared" ref="A73:A83" si="1">A72+1</f>
         <v>67</v>
@@ -9410,7 +9419,7 @@
       <c r="BI73" s="54"/>
       <c r="BJ73" s="54"/>
     </row>
-    <row r="74" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="74" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A74" s="41">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -9487,7 +9496,7 @@
       <c r="BI74" s="54"/>
       <c r="BJ74" s="54"/>
     </row>
-    <row r="75" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="75" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A75" s="41">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -9564,7 +9573,7 @@
       <c r="BI75" s="54"/>
       <c r="BJ75" s="54"/>
     </row>
-    <row r="76" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="76" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A76" s="41">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -9641,7 +9650,7 @@
       <c r="BI76" s="54"/>
       <c r="BJ76" s="54"/>
     </row>
-    <row r="77" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="77" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A77" s="41">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -9718,7 +9727,7 @@
       <c r="BI77" s="54"/>
       <c r="BJ77" s="54"/>
     </row>
-    <row r="78" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="78" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A78" s="41">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -9795,7 +9804,7 @@
       <c r="BI78" s="54"/>
       <c r="BJ78" s="54"/>
     </row>
-    <row r="79" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="79" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A79" s="41">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -9872,7 +9881,7 @@
       <c r="BI79" s="54"/>
       <c r="BJ79" s="54"/>
     </row>
-    <row r="80" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="80" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A80" s="41">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -9949,7 +9958,7 @@
       <c r="BI80" s="54"/>
       <c r="BJ80" s="54"/>
     </row>
-    <row r="81" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="81" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A81" s="41">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -10026,7 +10035,7 @@
       <c r="BI81" s="54"/>
       <c r="BJ81" s="54"/>
     </row>
-    <row r="82" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="82" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A82" s="41">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -10145,7 +10154,7 @@
       <c r="BI82" s="54"/>
       <c r="BJ82" s="54"/>
     </row>
-    <row r="83" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1">
+    <row r="83" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true">
       <c r="A83" s="41">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -10220,7 +10229,7 @@
       </c>
       <c r="BJ83" s="54"/>
     </row>
-    <row r="84" spans="1:62" s="19" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+    <row r="84" spans="1:62" s="19" customFormat="true" ht="30.75" customHeight="true" thickBot="true">
       <c r="A84" s="55">
         <f t="shared" ref="A84" si="2">A83+1</f>
         <v>78</v>
@@ -10295,105 +10304,105 @@
       <c r="BI84" s="68"/>
       <c r="BJ84" s="68"/>
     </row>
-    <row r="85" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="86" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="87" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="88" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="89" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="90" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="91" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="92" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="93" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="94" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="95" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="96" spans="1:62" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="97" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="98" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="99" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="100" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="101" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="102" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="103" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="104" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="105" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="106" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="107" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="108" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="109" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="110" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="111" s="1" customFormat="1" ht="18" customHeight="1"/>
-    <row r="112" ht="24" customHeight="1"/>
-    <row r="113" ht="24" customHeight="1"/>
-    <row r="114" ht="24" customHeight="1"/>
-    <row r="115" ht="24" customHeight="1"/>
-    <row r="116" ht="24" customHeight="1"/>
-    <row r="117" ht="24" customHeight="1"/>
-    <row r="118" ht="24" customHeight="1"/>
-    <row r="119" ht="24" customHeight="1"/>
-    <row r="120" ht="24" customHeight="1"/>
-    <row r="121" ht="24" customHeight="1"/>
-    <row r="122" ht="24" customHeight="1"/>
-    <row r="123" ht="24" customHeight="1"/>
-    <row r="124" ht="24" customHeight="1"/>
-    <row r="125" ht="24" customHeight="1"/>
-    <row r="126" ht="24" customHeight="1"/>
-    <row r="127" ht="24" customHeight="1"/>
-    <row r="128" ht="24" customHeight="1"/>
-    <row r="129" ht="24" customHeight="1"/>
-    <row r="130" ht="24" customHeight="1"/>
-    <row r="131" ht="24" customHeight="1"/>
-    <row r="132" ht="24" customHeight="1"/>
-    <row r="133" ht="24" customHeight="1"/>
-    <row r="134" ht="24" customHeight="1"/>
-    <row r="135" ht="24" customHeight="1"/>
-    <row r="136" ht="24" customHeight="1"/>
-    <row r="137" ht="24" customHeight="1"/>
-    <row r="138" ht="24" customHeight="1"/>
-    <row r="139" ht="24" customHeight="1"/>
-    <row r="140" ht="24" customHeight="1"/>
-    <row r="141" ht="24" customHeight="1"/>
-    <row r="142" ht="24" customHeight="1"/>
-    <row r="143" ht="24" customHeight="1"/>
-    <row r="144" ht="24" customHeight="1"/>
-    <row r="145" ht="24" customHeight="1"/>
-    <row r="146" ht="24" customHeight="1"/>
-    <row r="147" ht="24" customHeight="1"/>
-    <row r="148" ht="24" customHeight="1"/>
-    <row r="149" ht="24" customHeight="1"/>
-    <row r="150" ht="24" customHeight="1"/>
-    <row r="151" ht="24" customHeight="1"/>
-    <row r="152" ht="24" customHeight="1"/>
-    <row r="153" ht="24" customHeight="1"/>
-    <row r="154" ht="24" customHeight="1"/>
-    <row r="155" ht="24" customHeight="1"/>
-    <row r="156" ht="24" customHeight="1"/>
-    <row r="157" ht="24" customHeight="1"/>
-    <row r="158" ht="24" customHeight="1"/>
-    <row r="159" ht="24" customHeight="1"/>
-    <row r="160" ht="24" customHeight="1"/>
-    <row r="161" ht="24" customHeight="1"/>
-    <row r="162" ht="24" customHeight="1"/>
-    <row r="163" ht="24" customHeight="1"/>
-    <row r="164" ht="24" customHeight="1"/>
-    <row r="165" ht="24" customHeight="1"/>
-    <row r="166" ht="24" customHeight="1"/>
-    <row r="167" ht="24" customHeight="1"/>
-    <row r="168" ht="24" customHeight="1"/>
-    <row r="169" ht="24" customHeight="1"/>
-    <row r="170" ht="24" customHeight="1"/>
-    <row r="171" ht="24" customHeight="1"/>
-    <row r="172" ht="24" customHeight="1"/>
-    <row r="173" ht="24" customHeight="1"/>
-    <row r="174" ht="24" customHeight="1"/>
-    <row r="175" ht="24" customHeight="1"/>
-    <row r="176" ht="24" customHeight="1"/>
-    <row r="177" ht="24" customHeight="1"/>
-    <row r="178" ht="24" customHeight="1"/>
-    <row r="179" ht="24" customHeight="1"/>
-    <row r="180" ht="24" customHeight="1"/>
-    <row r="181" ht="24" customHeight="1"/>
-    <row r="182" ht="24" customHeight="1"/>
-    <row r="183" ht="24" customHeight="1"/>
+    <row r="85" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="86" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="87" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="88" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="89" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="90" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="91" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="92" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="93" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="94" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="95" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="96" spans="1:62" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="97" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="98" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="99" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="100" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="101" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="102" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="103" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="104" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="105" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="106" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="107" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="108" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="109" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="110" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="111" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="112" ht="24" customHeight="true"/>
+    <row r="113" ht="24" customHeight="true"/>
+    <row r="114" ht="24" customHeight="true"/>
+    <row r="115" ht="24" customHeight="true"/>
+    <row r="116" ht="24" customHeight="true"/>
+    <row r="117" ht="24" customHeight="true"/>
+    <row r="118" ht="24" customHeight="true"/>
+    <row r="119" ht="24" customHeight="true"/>
+    <row r="120" ht="24" customHeight="true"/>
+    <row r="121" ht="24" customHeight="true"/>
+    <row r="122" ht="24" customHeight="true"/>
+    <row r="123" ht="24" customHeight="true"/>
+    <row r="124" ht="24" customHeight="true"/>
+    <row r="125" ht="24" customHeight="true"/>
+    <row r="126" ht="24" customHeight="true"/>
+    <row r="127" ht="24" customHeight="true"/>
+    <row r="128" ht="24" customHeight="true"/>
+    <row r="129" ht="24" customHeight="true"/>
+    <row r="130" ht="24" customHeight="true"/>
+    <row r="131" ht="24" customHeight="true"/>
+    <row r="132" ht="24" customHeight="true"/>
+    <row r="133" ht="24" customHeight="true"/>
+    <row r="134" ht="24" customHeight="true"/>
+    <row r="135" ht="24" customHeight="true"/>
+    <row r="136" ht="24" customHeight="true"/>
+    <row r="137" ht="24" customHeight="true"/>
+    <row r="138" ht="24" customHeight="true"/>
+    <row r="139" ht="24" customHeight="true"/>
+    <row r="140" ht="24" customHeight="true"/>
+    <row r="141" ht="24" customHeight="true"/>
+    <row r="142" ht="24" customHeight="true"/>
+    <row r="143" ht="24" customHeight="true"/>
+    <row r="144" ht="24" customHeight="true"/>
+    <row r="145" ht="24" customHeight="true"/>
+    <row r="146" ht="24" customHeight="true"/>
+    <row r="147" ht="24" customHeight="true"/>
+    <row r="148" ht="24" customHeight="true"/>
+    <row r="149" ht="24" customHeight="true"/>
+    <row r="150" ht="24" customHeight="true"/>
+    <row r="151" ht="24" customHeight="true"/>
+    <row r="152" ht="24" customHeight="true"/>
+    <row r="153" ht="24" customHeight="true"/>
+    <row r="154" ht="24" customHeight="true"/>
+    <row r="155" ht="24" customHeight="true"/>
+    <row r="156" ht="24" customHeight="true"/>
+    <row r="157" ht="24" customHeight="true"/>
+    <row r="158" ht="24" customHeight="true"/>
+    <row r="159" ht="24" customHeight="true"/>
+    <row r="160" ht="24" customHeight="true"/>
+    <row r="161" ht="24" customHeight="true"/>
+    <row r="162" ht="24" customHeight="true"/>
+    <row r="163" ht="24" customHeight="true"/>
+    <row r="164" ht="24" customHeight="true"/>
+    <row r="165" ht="24" customHeight="true"/>
+    <row r="166" ht="24" customHeight="true"/>
+    <row r="167" ht="24" customHeight="true"/>
+    <row r="168" ht="24" customHeight="true"/>
+    <row r="169" ht="24" customHeight="true"/>
+    <row r="170" ht="24" customHeight="true"/>
+    <row r="171" ht="24" customHeight="true"/>
+    <row r="172" ht="24" customHeight="true"/>
+    <row r="173" ht="24" customHeight="true"/>
+    <row r="174" ht="24" customHeight="true"/>
+    <row r="175" ht="24" customHeight="true"/>
+    <row r="176" ht="24" customHeight="true"/>
+    <row r="177" ht="24" customHeight="true"/>
+    <row r="178" ht="24" customHeight="true"/>
+    <row r="179" ht="24" customHeight="true"/>
+    <row r="180" ht="24" customHeight="true"/>
+    <row r="181" ht="24" customHeight="true"/>
+    <row r="182" ht="24" customHeight="true"/>
+    <row r="183" ht="24" customHeight="true"/>
   </sheetData>
   <mergeCells count="564">
     <mergeCell ref="A58:C58"/>
@@ -10963,12 +10972,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG7:BJ84" xr:uid="{D050AA0B-B5A9-43A8-AB80-B8D90641E890}">
+    <dataValidation allowBlank="true" showErrorMessage="true" showInputMessage="true" sqref="BG7:BJ84" type="list">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.31" top="0.74803149606299213" bottom="0.74803149606299213" header="0.93" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7086614173228347" right="0.31" top="0.7480314960629921" bottom="0.7480314960629921" header="0.93" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" r:id="rId1" orientation="portrait" paperSize="9" scale="71"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;P　　</oddHeader>
   </headerFooter>
